--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1250530.890120847</v>
+        <v>1253850.436393752</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6114771.903720669</v>
+        <v>6114771.903720668</v>
       </c>
     </row>
     <row r="11">
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>174.144071639526</v>
+      </c>
+      <c r="H2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G2" t="n">
-        <v>19.20171008547518</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>180.1345173065298</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>46.05269753215434</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,55 +914,55 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>143.1098930513363</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>35.42621827346784</v>
+      </c>
+      <c r="W6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>165.7173798661024</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>158.8413341243909</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>15.5915088619814</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.6224228588286144</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,58 +1367,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="G11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>126.1108606921248</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.565027066663836</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1512,7 +1512,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1692,22 +1692,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>112.6175240304929</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,67 +1841,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.13484214871499</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1941,10 +1941,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>50.05769526855308</v>
+        <v>4.553513836134142</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2360,31 +2360,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>120.2963053846016</v>
       </c>
       <c r="V24" t="n">
-        <v>9.245357950761532</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2555,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2694,10 +2694,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
@@ -2852,7 +2852,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>91.10663889794492</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>62.52515684565924</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,25 +3032,25 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3111,16 +3111,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>124.0808356869336</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>121.6891056856135</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="E35" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>123.1846644288417</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.9993436125</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>32.52247821191008</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3782,16 +3782,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>31.15099944008764</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3819,19 +3819,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>138.9350621022359</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>13.66473413638039</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>205.5178444382804</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,13 +3937,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,22 +4101,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>74.93556577626664</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>205.5178444382804</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D2" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E2" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F2" t="n">
-        <v>47.90708355515102</v>
+        <v>399.9383124821396</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4337,13 +4337,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4352,28 +4352,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471.90198284767</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="C3" t="n">
-        <v>471.90198284767</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="D3" t="n">
-        <v>322.9675731864187</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E3" t="n">
-        <v>163.7301181809632</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
         <v>17.19556020784815</v>
@@ -4416,13 +4416,13 @@
         <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>423.3667595428576</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>626.8294255367553</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4431,28 +4431,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>640.1173198677379</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V3" t="n">
-        <v>640.1173198677379</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W3" t="n">
-        <v>640.1173198677379</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X3" t="n">
-        <v>640.1173198677379</v>
+        <v>298.7800328203368</v>
       </c>
       <c r="Y3" t="n">
-        <v>640.1173198677379</v>
+        <v>298.7800328203368</v>
       </c>
     </row>
     <row r="4">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>651.2927635848137</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C5" t="n">
-        <v>651.2927635848137</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D5" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E5" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F5" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4586,31 +4586,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W5" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X5" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y5" t="n">
-        <v>651.2927635848137</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>301.706810945562</v>
+        <v>304.1066626336982</v>
       </c>
       <c r="C6" t="n">
-        <v>301.706810945562</v>
+        <v>304.1066626336982</v>
       </c>
       <c r="D6" t="n">
-        <v>301.706810945562</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E6" t="n">
-        <v>301.706810945562</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F6" t="n">
         <v>155.1722529724469</v>
@@ -4653,10 +4653,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
         <v>639.4279001397708</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>677.5159302265193</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V6" t="n">
-        <v>469.92214796563</v>
+        <v>511.7004448945875</v>
       </c>
       <c r="W6" t="n">
-        <v>469.92214796563</v>
+        <v>304.1066626336982</v>
       </c>
       <c r="X6" t="n">
-        <v>469.92214796563</v>
+        <v>304.1066626336982</v>
       </c>
       <c r="Y6" t="n">
-        <v>469.92214796563</v>
+        <v>304.1066626336982</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="F8" t="n">
         <v>31.89873817641097</v>
@@ -4805,13 +4805,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4835,19 +4835,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>661.6255857082823</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>661.6255857082823</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>454.031803447393</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>246.4380211865037</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>440.4315409844885</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="C9" t="n">
-        <v>265.9785117033614</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="D9" t="n">
-        <v>265.9785117033614</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="E9" t="n">
-        <v>106.7410566979059</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="F9" t="n">
-        <v>106.7410566979059</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G9" t="n">
-        <v>106.7410566979059</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,13 +4887,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>648.6540332037905</v>
+        <v>531.7355049061899</v>
       </c>
       <c r="U9" t="n">
-        <v>441.0602509429012</v>
+        <v>531.7355049061899</v>
       </c>
       <c r="V9" t="n">
-        <v>440.4315409844885</v>
+        <v>324.1417226453007</v>
       </c>
       <c r="W9" t="n">
-        <v>440.4315409844885</v>
+        <v>324.1417226453007</v>
       </c>
       <c r="X9" t="n">
-        <v>440.4315409844885</v>
+        <v>324.1417226453007</v>
       </c>
       <c r="Y9" t="n">
-        <v>440.4315409844885</v>
+        <v>324.1417226453007</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5048,13 +5048,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5066,25 +5066,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C12" t="n">
-        <v>406.8838132313431</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D12" t="n">
-        <v>257.9494035700918</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E12" t="n">
-        <v>257.9494035700918</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="F12" t="n">
-        <v>257.9494035700918</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="G12" t="n">
-        <v>130.5646958002688</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5124,13 +5124,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5160,10 +5160,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5221,28 +5221,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5273,7 +5273,7 @@
         <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5282,7 +5282,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,10 +5361,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
         <v>435.9652341458732</v>
@@ -5379,28 +5379,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>807.2329312674061</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>633.815586718075</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>431.628992076841</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>224.0352098159517</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V15" t="n">
-        <v>224.0352098159517</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W15" t="n">
-        <v>224.0352098159517</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X15" t="n">
-        <v>224.0352098159517</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>901.2946886937524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>726.8416594126254</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D18" t="n">
-        <v>577.9072497513741</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>418.6697947459187</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>272.1352367728036</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5698,19 +5698,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C20" t="n">
-        <v>315.6850394389064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D20" t="n">
-        <v>72.23626279480629</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V20" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X20" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69.84447166430675</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="C21" t="n">
-        <v>69.84447166430675</v>
+        <v>581.7526260239764</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5832,16 +5832,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
         <v>964.0571555106362</v>
@@ -5865,16 +5865,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.84447166430675</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -5984,10 +5984,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>30.58726043968704</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>30.58726043968704</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="V24" t="n">
-        <v>853.5488806587123</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="W24" t="n">
-        <v>610.1001040146123</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="X24" t="n">
-        <v>402.2486038090794</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="25">
@@ -6136,13 +6136,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="V26" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="W26" t="n">
         <v>495.259035872464</v>
       </c>
-      <c r="V26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W26" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.38115216564972</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C27" t="n">
-        <v>49.38115216564972</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6309,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564972</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6421,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>726.4525409563269</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>909.0960185696777</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>900.9004314241117</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>698.7138367828777</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>470.4902185192667</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>470.4902185192667</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>227.0414418751666</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="31">
@@ -6658,7 +6658,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>761.6974622895962</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>319.0683498528888</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C33" t="n">
-        <v>144.6153205717618</v>
+        <v>447.97144466011</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>447.97144466011</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>288.7339896546545</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>142.1994316815395</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6789,7 +6789,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y33" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F34" t="n">
         <v>19.28114311021272</v>
@@ -6874,34 +6874,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C35" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.7812428759814</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>565.0413275456638</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7211,13 +7211,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>212.1237188612924</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>212.1237188612924</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>761.8705608694022</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X39" t="n">
-        <v>554.0190606638694</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y39" t="n">
-        <v>346.2587618989155</v>
+        <v>212.1237188612924</v>
       </c>
     </row>
     <row r="40">
@@ -7354,16 +7354,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
         <v>16.44142755506243</v>
@@ -7418,43 +7418,43 @@
         <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="T41" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="U41" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="V41" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="W41" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X41" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y41" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="U41" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="V41" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="W41" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="X41" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>305.7142837842288</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C42" t="n">
-        <v>305.7142837842288</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="D42" t="n">
-        <v>156.7798741229775</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7491,49 +7491,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>720.9018483060073</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V42" t="n">
-        <v>513.308066045118</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W42" t="n">
-        <v>513.308066045118</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X42" t="n">
-        <v>513.308066045118</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y42" t="n">
-        <v>305.7142837842288</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>804.3357255886647</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>710.0335234506114</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
         <v>687.5390872628509</v>
@@ -7585,34 +7585,34 @@
         <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>819.3224477176605</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>819.3224477176605</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="S43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="T43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="U43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7655,10 +7655,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7676,22 +7676,22 @@
         <v>614.4775954922324</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="W44" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F45" t="n">
         <v>16.44142755506243</v>
@@ -7731,16 +7731,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>163.1080096386462</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>746.378887070024</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>746.378887070024</v>
       </c>
       <c r="T45" t="n">
-        <v>345.2979091154422</v>
+        <v>746.378887070024</v>
       </c>
       <c r="U45" t="n">
-        <v>224.0352098159517</v>
+        <v>746.378887070024</v>
       </c>
       <c r="V45" t="n">
-        <v>224.0352098159517</v>
+        <v>746.378887070024</v>
       </c>
       <c r="W45" t="n">
-        <v>224.0352098159517</v>
+        <v>538.7851048091347</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>331.1913225482455</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>331.1913225482455</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,16 +8064,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8301,13 +8301,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,16 +8696,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,16 +8772,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8930,10 +8930,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9009,13 +9009,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9957,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,10 +9966,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10194,10 +10194,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>195.4980740263837</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,10 +10437,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.836493543131</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11379,19 +11379,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>286.7024424905649</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6629242394456</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23306,7 +23306,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23337,10 +23337,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>11.23265647108587</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>81.83160578475125</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23400,7 +23400,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23513,10 +23513,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23580,22 +23580,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>45.02755642490803</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>85.46777213178478</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23729,19 +23729,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.3983415011523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23829,10 +23829,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23975,7 +23975,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,7 +23984,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>287.0492336280195</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24023,10 +24023,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24048,22 +24048,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>97.38737029608566</v>
+        <v>142.8915517285046</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24105,16 +24105,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24142,7 +24142,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>370.7373139160822</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24248,31 +24248,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,22 +24333,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>105.6450766963732</v>
       </c>
       <c r="V24" t="n">
-        <v>223.5552291986637</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24376,16 +24376,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>128.1631918897635</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24443,13 +24443,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24497,16 +24497,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>97.54843351316518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24525,7 +24525,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>42.70668231727912</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>59.59762388653245</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24570,10 +24570,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24582,10 +24582,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24695,13 +24695,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
@@ -24740,7 +24740,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,7 +24765,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>66.53844155745603</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>109.1580142581786</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24898,10 +24898,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,25 +24920,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,16 +24965,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>8.68397329741569</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24999,16 +24999,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>23.3642298777052</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>15.65441147759714</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25114,7 +25114,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>284.3390338194077</v>
       </c>
       <c r="E35" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25199,13 +25199,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25230,19 +25230,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>56.38340022020472</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>76.98006426597986</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,7 +25406,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.53384003736738</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>114.9225873527287</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,19 +25515,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25628,7 +25628,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25670,16 +25670,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>177.8690701461577</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25707,19 +25707,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>18.71001835316503</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>123.6787830268302</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>27.28274271114486</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25804,13 +25804,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>140.6136200195525</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,13 +25825,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25877,7 +25877,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25916,22 +25916,22 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.2178212748161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25953,7 +25953,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25989,22 +25989,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.22226837637649</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>105.8913097744792</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>0.2551407651970692</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390477.5804486314</v>
+        <v>390477.5804486313</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>390477.5804486313</v>
+        <v>390477.5804486314</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390477.5804486314</v>
+        <v>390477.5804486313</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>390477.5804486314</v>
+        <v>390477.5804486313</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>181421.2881101714</v>
@@ -26326,7 +26326,7 @@
         <v>181421.2881101714</v>
       </c>
       <c r="G2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="H2" t="n">
         <v>191084.7734110323</v>
@@ -26335,7 +26335,7 @@
         <v>191084.7734110323</v>
       </c>
       <c r="J2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="K2" t="n">
         <v>191084.7734110322</v>
@@ -26347,7 +26347,7 @@
         <v>191084.7734110323</v>
       </c>
       <c r="N2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="O2" t="n">
         <v>181421.2881101714</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289079.3271252677</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="C4" t="n">
-        <v>289079.3271252677</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="D4" t="n">
-        <v>289079.3271252677</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68022.84902315788</v>
+        <v>68410.49044204448</v>
       </c>
       <c r="C6" t="n">
-        <v>136896.6056048478</v>
+        <v>137284.2470237341</v>
       </c>
       <c r="D6" t="n">
-        <v>136896.6056048478</v>
+        <v>137284.2470237341</v>
       </c>
       <c r="E6" t="n">
-        <v>168384.3501905043</v>
+        <v>168771.9916093907</v>
       </c>
       <c r="F6" t="n">
-        <v>168384.3501905043</v>
+        <v>168771.9916093907</v>
       </c>
       <c r="G6" t="n">
-        <v>166113.9560029562</v>
+        <v>166522.5291753996</v>
       </c>
       <c r="H6" t="n">
-        <v>175842.9989771234</v>
+        <v>176251.5721495667</v>
       </c>
       <c r="I6" t="n">
-        <v>175842.9989771234</v>
+        <v>176251.5721495667</v>
       </c>
       <c r="J6" t="n">
-        <v>122070.4880869139</v>
+        <v>122479.0612593572</v>
       </c>
       <c r="K6" t="n">
-        <v>175842.9989771233</v>
+        <v>176251.5721495666</v>
       </c>
       <c r="L6" t="n">
-        <v>175842.9989771234</v>
+        <v>176251.5721495667</v>
       </c>
       <c r="M6" t="n">
-        <v>175842.9989771234</v>
+        <v>176251.5721495666</v>
       </c>
       <c r="N6" t="n">
-        <v>175842.9989771233</v>
+        <v>176251.5721495666</v>
       </c>
       <c r="O6" t="n">
-        <v>168384.3501905043</v>
+        <v>168771.9916093907</v>
       </c>
       <c r="P6" t="n">
-        <v>168384.3501905043</v>
+        <v>168771.9916093907</v>
       </c>
     </row>
   </sheetData>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>396.1010274296599</v>
+        <v>241.158665875609</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27436,16 +27436,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,19 +27461,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>45.80686477444499</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>159.7202876713231</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>183.6536234539903</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27673,7 +27673,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>158.68143044351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>82.83148902963856</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>197.3743688759574</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>241.1586658756091</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27907,19 +27907,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>168.910924345744</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -27929,31 +27929,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>184.5732198328402</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.1781642905966</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28029,13 +28029,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062294</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34705,16 +34705,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35021,13 +35021,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,16 +35416,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35650,10 +35650,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35729,13 +35729,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,10 +36686,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.51629994036219</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37157,10 +37157,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O33" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="O33" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,19 +38099,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>148.1480627106907</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1253850.436393752</v>
+        <v>1254634.58233178</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797657</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6114771.903720668</v>
+        <v>6114771.903720669</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,58 +673,58 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>174.144071639526</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>174.1440716395259</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -789,19 +791,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>92.72805966043367</v>
       </c>
       <c r="X3" t="n">
-        <v>46.05269753215434</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>158.841334124391</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>13.74034240511227</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>35.42621827346784</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
         <v>205.5178444382804</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>158.8413341243909</v>
       </c>
       <c r="V8" t="n">
-        <v>158.8413341243909</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1224,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,16 +1262,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>122.9861200411183</v>
       </c>
       <c r="T9" t="n">
-        <v>15.5915088619814</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1367,73 +1369,73 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="V11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.565027066663836</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1503,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,55 +1618,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="U14" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>37.36227613112857</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>112.6175240304929</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1701,13 +1703,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1898,10 +1900,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1938,7 +1940,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>66.63212677482572</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2084,22 +2086,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>4.553513836134142</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -2178,7 +2180,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>88.64735134512749</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2315,14 +2317,14 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="U24" t="n">
-        <v>120.2963053846016</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2491,49 +2493,49 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2637,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2685,22 +2687,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>111.1751113141405</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2722,43 +2724,43 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>91.10663889794492</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3105,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>102.524443528012</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>121.6891056856135</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3162,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3226,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3263,31 +3265,31 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>70.34400780127524</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3348,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>123.1846644288417</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="37">
@@ -3427,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3500,73 +3502,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3585,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>32.52247821191008</v>
+        <v>66.95039176927961</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3679,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3782,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y41" t="n">
         <v>205.5178444382804</v>
@@ -3825,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>140.0737537369989</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>13.66473413638039</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4056,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>74.93556577626664</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4119,7 +4121,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>106.9983198999733</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>438.5744928260445</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>438.5744928260445</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>230.9807105651552</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>230.9807105651552</v>
       </c>
       <c r="F2" t="n">
-        <v>399.9383124821396</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
         <v>16.44142755506243</v>
@@ -4364,16 +4366,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>646.1682750869338</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>438.5744928260445</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>438.5744928260445</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>438.5744928260445</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.5646958002688</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="C3" t="n">
-        <v>130.5646958002688</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="D3" t="n">
-        <v>130.5646958002688</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5646958002688</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5646958002688</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4416,16 +4418,16 @@
         <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4439,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>345.2979091154422</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V3" t="n">
-        <v>345.2979091154422</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W3" t="n">
-        <v>345.2979091154422</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="X3" t="n">
-        <v>298.7800328203368</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.7800328203368</v>
+        <v>246.2260147680761</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D5" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E5" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>192.3445302212503</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>176.8872195999018</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4586,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.1066626336982</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C6" t="n">
-        <v>304.1066626336982</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>155.1722529724469</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>155.1722529724469</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>155.1722529724469</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4653,43 +4655,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>808.192244010584</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>600.5984617496947</v>
       </c>
       <c r="V6" t="n">
-        <v>511.7004448945875</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="W6" t="n">
-        <v>304.1066626336982</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="X6" t="n">
-        <v>304.1066626336982</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="Y6" t="n">
-        <v>304.1066626336982</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="7">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.84423892561444</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="C8" t="n">
-        <v>38.84423892561444</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="D8" t="n">
-        <v>38.84423892561444</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="E8" t="n">
-        <v>38.84423892561444</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4832,16 +4834,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>454.031803447393</v>
       </c>
       <c r="V8" t="n">
-        <v>661.6255857082823</v>
+        <v>454.031803447393</v>
       </c>
       <c r="W8" t="n">
-        <v>661.6255857082823</v>
+        <v>454.031803447393</v>
       </c>
       <c r="X8" t="n">
         <v>454.031803447393</v>
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155.9263856252326</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="C9" t="n">
-        <v>155.9263856252326</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="D9" t="n">
-        <v>155.9263856252326</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="E9" t="n">
-        <v>155.9263856252326</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F9" t="n">
-        <v>155.9263856252326</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4887,19 +4889,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4908,25 +4910,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>596.6734442240696</v>
       </c>
       <c r="T9" t="n">
-        <v>531.7355049061899</v>
+        <v>596.6734442240696</v>
       </c>
       <c r="U9" t="n">
-        <v>531.7355049061899</v>
+        <v>389.0796619631803</v>
       </c>
       <c r="V9" t="n">
-        <v>324.1417226453007</v>
+        <v>389.0796619631803</v>
       </c>
       <c r="W9" t="n">
-        <v>324.1417226453007</v>
+        <v>389.0796619631803</v>
       </c>
       <c r="X9" t="n">
-        <v>324.1417226453007</v>
+        <v>389.0796619631803</v>
       </c>
       <c r="Y9" t="n">
-        <v>324.1417226453007</v>
+        <v>389.0796619631803</v>
       </c>
     </row>
     <row r="10">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5042,13 +5044,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5066,25 +5068,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C12" t="n">
-        <v>24.83700168932677</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>24.83700168932677</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>24.83700168932677</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>24.83700168932677</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>24.83700168932677</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>24.83700168932677</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5124,19 +5126,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5151,19 +5153,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>639.976906990516</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>639.976906990516</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="X12" t="n">
-        <v>406.8838132313431</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>619.8847831118876</v>
+        <v>784.3317048933958</v>
       </c>
       <c r="C15" t="n">
-        <v>619.8847831118876</v>
+        <v>609.8786756122688</v>
       </c>
       <c r="D15" t="n">
-        <v>619.8847831118876</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5364,10 +5366,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5385,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5546,7 +5548,7 @@
         <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
         <v>19.28114311021272</v>
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>728.5366399301382</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>554.0836106490112</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>554.0836106490112</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
         <v>109.5807722530562</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>896.7519769502062</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>896.7519769502062</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>896.7519769502062</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>896.7519769502062</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>896.7519769502062</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>896.7519769502062</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>896.7519769502062</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>896.7519769502062</v>
       </c>
     </row>
     <row r="19">
@@ -5698,7 +5700,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C20" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D20" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U20" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V20" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y20" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>756.2056553051034</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C21" t="n">
-        <v>581.7526260239764</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>773.3448469270295</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>773.3448469270295</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>773.3448469270295</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>773.3448469270295</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>529.8960702829295</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>529.8960702829295</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2056553051034</v>
+        <v>529.8960702829295</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C23" t="n">
+        <v>274.7999090013961</v>
+      </c>
+      <c r="D23" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="E23" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="F23" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="G23" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="H23" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="I23" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="J23" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="I23" t="n">
-        <v>19.28114311021275</v>
-      </c>
-      <c r="J23" t="n">
-        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>158.0119685275972</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C24" t="n">
-        <v>158.0119685275972</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D24" t="n">
-        <v>158.0119685275972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>178.8501590306595</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="U24" t="n">
-        <v>365.7722672925511</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="V24" t="n">
-        <v>365.7722672925511</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="W24" t="n">
-        <v>365.7722672925511</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="X24" t="n">
-        <v>365.7722672925511</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y24" t="n">
-        <v>158.0119685275972</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6181,16 +6183,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>251.810259228364</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6333,22 +6335,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>125.0774898247174</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>125.0774898247174</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>125.0774898247174</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.3080510879349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>111.3080510879349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>111.3080510879349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W30" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6643,22 +6645,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
         <v>506.1786963984129</v>
@@ -6683,13 +6685,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.424473941237</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="C33" t="n">
-        <v>447.97144466011</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="D33" t="n">
-        <v>447.97144466011</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E33" t="n">
-        <v>288.7339896546545</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F33" t="n">
-        <v>142.1994316815395</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6812,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>790.6398109613051</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X33" t="n">
-        <v>790.6398109613051</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.6398109613051</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>333.7844730889342</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C35" t="n">
-        <v>333.7844730889342</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>577.2332497330343</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>577.2332497330343</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V35" t="n">
-        <v>577.2332497330343</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W35" t="n">
-        <v>577.2332497330343</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X35" t="n">
-        <v>577.2332497330343</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y35" t="n">
-        <v>577.2332497330343</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>565.0413275456638</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>565.0413275456638</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>416.1069178844125</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>256.869462878957</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>565.0413275456638</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>565.0413275456638</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>565.0413275456638</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>565.0413275456638</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>565.0413275456638</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>565.0413275456638</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>212.1237188612924</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C39" t="n">
-        <v>212.1237188612924</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="D39" t="n">
-        <v>179.2727307684539</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W39" t="n">
-        <v>627.7355178317791</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X39" t="n">
-        <v>419.8840176262463</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y39" t="n">
-        <v>212.1237188612924</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7415,40 +7417,40 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
         <v>639.2227743377304</v>
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>204.697218590109</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C42" t="n">
-        <v>30.24418930898202</v>
+        <v>647.6183484719946</v>
       </c>
       <c r="D42" t="n">
-        <v>30.24418930898202</v>
+        <v>647.6183484719946</v>
       </c>
       <c r="E42" t="n">
-        <v>30.24418930898202</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F42" t="n">
-        <v>30.24418930898202</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7496,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7518,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>412.2910008509983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>204.697218590109</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>204.697218590109</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X42" t="n">
-        <v>204.697218590109</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y42" t="n">
-        <v>204.697218590109</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="43">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7655,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7676,22 +7678,22 @@
         <v>614.4775954922324</v>
       </c>
       <c r="T44" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>162.9759855281775</v>
+        <v>338.1831474620902</v>
       </c>
       <c r="C45" t="n">
-        <v>162.9759855281775</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="D45" t="n">
-        <v>162.9759855281775</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="E45" t="n">
-        <v>162.9759855281775</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,7 +7733,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>142.2888212580996</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
         <v>345.7514872519972</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>746.378887070024</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>746.378887070024</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>746.378887070024</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>746.378887070024</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>746.378887070024</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>538.7851048091347</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>331.1913225482455</v>
+        <v>506.3984844821583</v>
       </c>
       <c r="Y45" t="n">
-        <v>331.1913225482455</v>
+        <v>506.3984844821583</v>
       </c>
     </row>
     <row r="46">
@@ -8064,19 +8066,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,10 +8303,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,22 +8774,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,13 +9014,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>255.5148970497678</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7352039419416</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11063,7 +11065,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,10 +11144,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11154,10 +11156,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>265.6729592778915</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>269.2526134200356</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23306,22 +23308,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23355,7 +23357,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>81.83160578475125</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23391,7 +23393,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>45.66785602599526</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1853526822936</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>129.1709075187388</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>45.02755642490803</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23589,13 +23591,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,7 +23627,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23786,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23826,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>33.52570737781741</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23938,10 +23940,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23972,10 +23974,10 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,10 +23986,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>130.141182554586</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>142.8915517285046</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24066,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>83.03581975871033</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>114.8510008539294</v>
       </c>
       <c r="U24" t="n">
-        <v>105.6450766963732</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24379,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,19 +24496,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24525,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>42.70668231727912</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24573,22 +24575,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,22 +24733,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>22.7597532753017</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>66.53844155745603</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24968,10 +24970,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24993,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>44.92062203662678</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>15.65441147759714</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25050,10 +25052,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>14.95552117266971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25093,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25114,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>284.3390338194077</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25169,13 +25171,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,10 +25213,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>319.9736124381836</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25236,13 +25238,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25251,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>76.98006426597986</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="37">
@@ -25315,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25445,16 +25447,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25473,22 +25475,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>114.9225873527287</v>
+        <v>80.49467379535915</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25567,13 +25569,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25670,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y41" t="n">
         <v>180.7200942177732</v>
@@ -25713,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>17.57132671840205</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>123.6787830268302</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,13 +25760,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25877,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25916,10 +25918,10 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25944,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.22226837637649</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26007,7 +26009,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>98.77466530350414</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370730.4583120897</v>
+        <v>370730.4583120896</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>390477.5804486313</v>
+        <v>390477.5804486314</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>390477.5804486314</v>
+        <v>390477.5804486313</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390477.5804486313</v>
+        <v>390477.5804486314</v>
       </c>
     </row>
     <row r="13">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
@@ -26329,10 +26331,10 @@
         <v>191084.7734110323</v>
       </c>
       <c r="H2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="I2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110324</v>
       </c>
       <c r="J2" t="n">
         <v>191084.7734110323</v>
@@ -26341,13 +26343,13 @@
         <v>191084.7734110322</v>
       </c>
       <c r="L2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="M2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="N2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="O2" t="n">
         <v>181421.2881101714</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68410.49044204448</v>
+        <v>68410.49044204425</v>
       </c>
       <c r="C6" t="n">
-        <v>137284.2470237341</v>
+        <v>137284.2470237342</v>
       </c>
       <c r="D6" t="n">
-        <v>137284.2470237341</v>
+        <v>137284.2470237342</v>
       </c>
       <c r="E6" t="n">
         <v>168771.9916093907</v>
@@ -26537,7 +26539,7 @@
         <v>166522.5291753996</v>
       </c>
       <c r="H6" t="n">
-        <v>176251.5721495667</v>
+        <v>176251.5721495666</v>
       </c>
       <c r="I6" t="n">
         <v>176251.5721495667</v>
@@ -26549,7 +26551,7 @@
         <v>176251.5721495666</v>
       </c>
       <c r="L6" t="n">
-        <v>176251.5721495667</v>
+        <v>176251.5721495666</v>
       </c>
       <c r="M6" t="n">
         <v>176251.5721495666</v>
@@ -27382,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>241.158665875609</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27436,13 +27438,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>153.608186830609</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,19 +27511,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>158.9669235004859</v>
       </c>
       <c r="X3" t="n">
-        <v>159.7202876713231</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.36645333167579</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424917</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>183.6536234539903</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>180.6334679913762</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,7 +27709,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27716,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>186.4243862897093</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>197.3743688759574</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
         <v>46.1771387226392</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27871,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27904,19 +27906,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>92.50431878344557</v>
       </c>
       <c r="V8" t="n">
-        <v>168.910924345744</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -27944,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>48.69705106271951</v>
       </c>
       <c r="T9" t="n">
-        <v>184.5732198328402</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -34784,19 +34786,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>148.1480627106907</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,10 +35023,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N15" t="n">
         <v>91.61977832229879</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>113.3808631277495</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37874,10 +37876,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N44" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N44" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M45" t="n">
         <v>127.1185794980173</v>
-      </c>
-      <c r="M45" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1254634.58233178</v>
+        <v>1184974.246657253</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797657</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6114771.903720669</v>
+        <v>6114771.903720668</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,16 +673,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>174.1440716395259</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>99.77556758141499</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>92.72805966043367</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,64 +895,64 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>159.0801288120801</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H5" t="n">
-        <v>158.841334124391</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>83.92733892378909</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>13.74034240511227</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>158.8413341243909</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>122.9861200411183</v>
+        <v>73.39119756194191</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>47.57501573955479</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>180.2735260549796</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>37.36227613112857</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>189.1836792563703</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.63212677482572</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>154.8359655669563</v>
       </c>
     </row>
     <row r="19">
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>92.95466700954542</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>80.16374038692172</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>88.64735134512749</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2238,70 +2238,70 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>84.14750936819277</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,26 +2554,26 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>111.1751113141405</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>178.8685620569061</v>
       </c>
     </row>
     <row r="28">
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>241.0142888776591</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>54.82907102477792</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,7 +2936,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,67 +3028,67 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>102.524443528012</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>223.2654336072233</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3207,43 +3207,43 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,58 +3283,58 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3435,49 +3435,49 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3587,25 +3587,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>66.95039176927961</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
     </row>
     <row r="40">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3742,59 +3742,59 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>205.5178444382804</v>
@@ -3821,28 +3821,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>140.0737537369989</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3939,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>106.9983198999733</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4137,73 +4137,73 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>438.5744928260445</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C2" t="n">
-        <v>438.5744928260445</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D2" t="n">
-        <v>230.9807105651552</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E2" t="n">
-        <v>230.9807105651552</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="V2" t="n">
-        <v>646.1682750869338</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="W2" t="n">
-        <v>438.5744928260445</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X2" t="n">
-        <v>438.5744928260445</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y2" t="n">
-        <v>438.5744928260445</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.2260147680761</v>
+        <v>451.6694460918196</v>
       </c>
       <c r="C3" t="n">
-        <v>246.2260147680761</v>
+        <v>277.2164168106925</v>
       </c>
       <c r="D3" t="n">
-        <v>246.2260147680761</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E3" t="n">
-        <v>246.2260147680761</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>246.2260147680761</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4412,16 +4412,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>618.608711759224</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
         <v>822.0713777531216</v>
@@ -4433,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V3" t="n">
-        <v>339.8907214957869</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W3" t="n">
-        <v>246.2260147680761</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X3" t="n">
-        <v>246.2260147680761</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y3" t="n">
-        <v>246.2260147680761</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4518,22 +4518,22 @@
         <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C5" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E5" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F5" t="n">
-        <v>192.3445302212503</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G5" t="n">
-        <v>176.8872195999018</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4576,10 +4576,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>513.308066045118</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>513.308066045118</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>513.308066045118</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>354.0706110396625</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H6" t="n">
         <v>17.19556020784815</v>
@@ -4658,40 +4658,40 @@
         <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>808.192244010584</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>600.5984617496947</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>393.0046794888054</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W6" t="n">
-        <v>185.4108972279162</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X6" t="n">
-        <v>185.4108972279162</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y6" t="n">
-        <v>185.4108972279162</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4749,28 +4749,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>246.4380211865037</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="C8" t="n">
-        <v>246.4380211865037</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="D8" t="n">
-        <v>246.4380211865037</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="E8" t="n">
-        <v>246.4380211865037</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F8" t="n">
-        <v>239.4925204373003</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>454.031803447393</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V8" t="n">
-        <v>454.031803447393</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W8" t="n">
-        <v>454.031803447393</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X8" t="n">
-        <v>454.031803447393</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y8" t="n">
-        <v>246.4380211865037</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>220.8643249431123</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="C9" t="n">
-        <v>220.8643249431123</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="D9" t="n">
-        <v>220.8643249431123</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E9" t="n">
-        <v>220.8643249431123</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F9" t="n">
-        <v>220.8643249431123</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4886,49 +4886,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1080096386462</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M9" t="n">
-        <v>366.5706756325438</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>596.6734442240696</v>
+        <v>747.9388549632813</v>
       </c>
       <c r="T9" t="n">
-        <v>596.6734442240696</v>
+        <v>545.7522603220474</v>
       </c>
       <c r="U9" t="n">
-        <v>389.0796619631803</v>
+        <v>338.1584780611581</v>
       </c>
       <c r="V9" t="n">
-        <v>389.0796619631803</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="W9" t="n">
-        <v>389.0796619631803</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="X9" t="n">
-        <v>389.0796619631803</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="Y9" t="n">
-        <v>389.0796619631803</v>
+        <v>130.5646958002688</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4995,19 +4995,19 @@
         <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5044,13 +5044,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V11" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="X11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="Y11" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.19556020784815</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="D12" t="n">
         <v>17.19556020784815</v>
@@ -5129,16 +5129,16 @@
         <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
+        <v>219.90409354896</v>
+      </c>
+      <c r="N12" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>626.8294255367553</v>
       </c>
-      <c r="O12" t="n">
-        <v>639.4279001397708</v>
-      </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5147,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U12" t="n">
-        <v>639.976906990516</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V12" t="n">
-        <v>639.976906990516</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W12" t="n">
-        <v>432.3831247296267</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X12" t="n">
-        <v>224.7893424687375</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.19556020784815</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5287,10 +5287,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5302,28 +5302,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>784.3317048933958</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="C15" t="n">
-        <v>609.8786756122688</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="D15" t="n">
-        <v>460.9442659510175</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="E15" t="n">
-        <v>301.706810945562</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F15" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5366,43 +5366,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4279001397708</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>529.8072227945222</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>529.8072227945222</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>529.8072227945222</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>322.2134405336329</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
+        <v>812.6742080953335</v>
+      </c>
+      <c r="V17" t="n">
+        <v>569.2254314512334</v>
+      </c>
+      <c r="W17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="X17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="Y17" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="V17" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="W17" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X17" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>728.5366399301382</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>554.0836106490112</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>554.0836106490112</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>394.8461556435558</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>248.3115976704407</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>896.7519769502062</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>896.7519769502062</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>896.7519769502062</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>896.7519769502062</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>896.7519769502062</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>896.7519769502062</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X18" t="n">
-        <v>896.7519769502062</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y18" t="n">
-        <v>896.7519769502062</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5697,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>718.7806050553886</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>361.6807332628614</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C21" t="n">
-        <v>361.6807332628614</v>
+        <v>408.4264829152243</v>
       </c>
       <c r="D21" t="n">
-        <v>361.6807332628614</v>
+        <v>259.492073253973</v>
       </c>
       <c r="E21" t="n">
-        <v>361.6807332628614</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5837,7 +5837,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
         <v>473.4149733950735</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>773.3448469270295</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>773.3448469270295</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>773.3448469270295</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>773.3448469270295</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>529.8960702829295</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>529.8960702829295</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y21" t="n">
-        <v>529.8960702829295</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>877.8816728430684</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>877.8816728430684</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>877.8816728430684</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W24" t="n">
-        <v>877.8816728430684</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X24" t="n">
-        <v>877.8816728430684</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y24" t="n">
-        <v>670.1213740781145</v>
+        <v>104.2786273205085</v>
       </c>
     </row>
     <row r="25">
@@ -6177,10 +6177,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6308,13 +6308,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>678.3417187247995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,43 +6551,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>497.8820279860555</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>262.7299197543128</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="31">
@@ -6645,16 +6645,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>327.2640844659515</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C33" t="n">
-        <v>327.2640844659515</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D33" t="n">
-        <v>223.7040404982626</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E33" t="n">
-        <v>223.7040404982626</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F33" t="n">
-        <v>223.7040404982626</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>637.3669860562256</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>402.214877824483</v>
       </c>
       <c r="W33" t="n">
-        <v>327.2640844659515</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="X33" t="n">
-        <v>327.2640844659515</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="Y33" t="n">
-        <v>327.2640844659515</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>487.4018176583718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>487.4018176583718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7125,22 +7125,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>559.1338160830064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>315.6850394389064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>72.23626279480629</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>72.23626279480629</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.23626279480629</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>735.8335372470253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>735.8335372470253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>735.8335372470253</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>735.8335372470253</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y39" t="n">
-        <v>735.8335372470253</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
         <v>16.44142755506243</v>
@@ -7414,49 +7414,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>647.6183484719946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>647.6183484719946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X42" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7657,43 +7657,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U44" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V44" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>338.1831474620902</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>163.7301181809632</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>163.7301181809632</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>163.7301181809632</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>345.7514872519972</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>549.2141532458947</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7763,16 +7763,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X45" t="n">
-        <v>506.3984844821583</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>506.3984844821583</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
@@ -8069,10 +8069,10 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8224,13 +8224,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8306,7 +8306,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8464,13 +8464,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>160.0786444523452</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8546,13 +8546,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8777,19 +8777,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>155.3219763666824</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9014,19 +9014,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.628815381816</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,10 +9485,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>339.3481270698632</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11305,16 +11305,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>269.2526134200356</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>99.87004982508395</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>45.66785602599526</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23503,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>230.1853526822936</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.1709075187388</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,7 +23630,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>36.75770282460456</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>33.52570737781741</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23870,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>50.84673021034803</v>
       </c>
     </row>
     <row r="19">
@@ -23937,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23986,10 +23986,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>130.141182554586</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823873</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>57.17977677628892</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>83.03581975871033</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24110,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>82.38567428167457</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24335,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>114.8510008539294</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24417,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24524,13 +24524,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>121.6254758352848</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>26.8141337203983</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>145.2236497783945</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>117.8794279635378</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25001,7 +25001,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>44.92062203662678</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>2.675948473751532</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,13 +25171,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>319.9736124381836</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>370.7373139160822</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25475,25 +25475,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>80.49467379535915</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>135.0341266295844</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25569,13 +25569,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>180.7200942177732</v>
@@ -25709,28 +25709,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>17.57132671840205</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>191.0829231826191</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25827,13 +25827,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>42.07573218289394</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>348.5708004529261</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25955,7 +25955,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26003,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>98.77466530350414</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>370730.4583120897</v>
+        <v>370730.4583120896</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370730.4583120896</v>
+        <v>370730.4583120897</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390477.5804486313</v>
+        <v>390477.5804486314</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>390477.5804486314</v>
+        <v>390477.5804486313</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390477.5804486314</v>
+        <v>390477.5804486313</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370730.4583120897</v>
+        <v>370730.4583120896</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
@@ -26328,28 +26328,28 @@
         <v>181421.2881101714</v>
       </c>
       <c r="G2" t="n">
+        <v>191084.7734110322</v>
+      </c>
+      <c r="H2" t="n">
         <v>191084.7734110323</v>
       </c>
-      <c r="H2" t="n">
-        <v>191084.7734110322</v>
-      </c>
       <c r="I2" t="n">
-        <v>191084.7734110324</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="J2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="K2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="L2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="M2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="N2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="O2" t="n">
         <v>181421.2881101714</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68410.49044204425</v>
+        <v>68410.49044204436</v>
       </c>
       <c r="C6" t="n">
-        <v>137284.2470237342</v>
+        <v>137284.2470237341</v>
       </c>
       <c r="D6" t="n">
-        <v>137284.2470237342</v>
+        <v>137284.2470237341</v>
       </c>
       <c r="E6" t="n">
-        <v>168771.9916093907</v>
+        <v>156133.8294545302</v>
       </c>
       <c r="F6" t="n">
-        <v>168771.9916093907</v>
+        <v>156133.8294545302</v>
       </c>
       <c r="G6" t="n">
-        <v>166522.5291753996</v>
+        <v>154304.518555359</v>
       </c>
       <c r="H6" t="n">
-        <v>176251.5721495666</v>
+        <v>164033.5615295262</v>
       </c>
       <c r="I6" t="n">
-        <v>176251.5721495667</v>
+        <v>164033.5615295262</v>
       </c>
       <c r="J6" t="n">
-        <v>122479.0612593572</v>
+        <v>110261.0506393168</v>
       </c>
       <c r="K6" t="n">
-        <v>176251.5721495666</v>
+        <v>164033.5615295262</v>
       </c>
       <c r="L6" t="n">
-        <v>176251.5721495666</v>
+        <v>164033.5615295262</v>
       </c>
       <c r="M6" t="n">
-        <v>176251.5721495666</v>
+        <v>164033.5615295262</v>
       </c>
       <c r="N6" t="n">
-        <v>176251.5721495666</v>
+        <v>164033.5615295262</v>
       </c>
       <c r="O6" t="n">
-        <v>168771.9916093907</v>
+        <v>156133.8294545302</v>
       </c>
       <c r="P6" t="n">
-        <v>168771.9916093907</v>
+        <v>156133.8294545302</v>
       </c>
     </row>
   </sheetData>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,16 +27393,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,25 +27423,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>30.54577751176708</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>153.608186830609</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>47.66949798322376</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>158.9669235004859</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>59.05078607424917</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801998</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27615,31 +27615,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>256.2226087030549</v>
       </c>
       <c r="H5" t="n">
-        <v>180.6334679913762</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27669,10 +27669,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,16 +27703,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>61.14187346959478</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>186.4243862897093</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>145.9569875857745</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27858,25 +27858,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>345.4720307497525</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,19 +27897,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>92.50431878344557</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>48.69705106271951</v>
+        <v>98.29197354189591</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>155.8535025062294</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
@@ -34789,10 +34789,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34944,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35026,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35184,13 +35184,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>21.52426467247106</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35266,13 +35266,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>185.0873001866707</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35497,19 +35497,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>12.72573192223796</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35734,19 +35734,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0.4947814597977008</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N15" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36919,7 +36919,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>197.2140931478448</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
